--- a/tests/data/survey.xlsx
+++ b/tests/data/survey.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26415"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51B12B11-E313-4240-AD79-988ACFC87831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="65428" yWindow="65428" windowWidth="23256" windowHeight="12576" activeTab="0"/>
+    <workbookView xWindow="65428" yWindow="65428" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -29,155 +42,161 @@
     <t>Q3</t>
   </si>
   <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>record1</t>
+  </si>
+  <si>
+    <t>On the way to Malaysia...no internet access to Twit</t>
+  </si>
+  <si>
+    <t>i want to go to music tonight but i lost my voice.</t>
+  </si>
+  <si>
+    <t>I`d have responded, if I were going</t>
+  </si>
+  <si>
+    <t>Strongly Disagree</t>
+  </si>
+  <si>
     <t>record2</t>
   </si>
   <si>
-    <t>record1</t>
+    <t>juss came backk from Berkeleyy ; omg its madd fun out there havent been out there in a minute . wha...</t>
+  </si>
+  <si>
+    <t>Uh oh, I am sunburned</t>
+  </si>
+  <si>
+    <t>Sooo SAD I will miss you here in San Diego!!!</t>
+  </si>
+  <si>
+    <t>Somewhat disagree</t>
   </si>
   <si>
     <t>record3</t>
   </si>
   <si>
+    <t>Went to sleep and there is a power cut in Noida Power back up not working too</t>
+  </si>
+  <si>
+    <t>i`ve been sick for the past few days and thus, my hair looks wierd. if i didnt have a hat on it wo...</t>
+  </si>
+  <si>
+    <t>my boss is bullying me...</t>
+  </si>
+  <si>
+    <t>Somewhat agree</t>
+  </si>
+  <si>
     <t>record4</t>
   </si>
   <si>
+    <t>I`m going home now. Have you seen my new twitter design? Quite....heavenly isn`****?</t>
+  </si>
+  <si>
+    <t>is back home now gonna miss every one</t>
+  </si>
+  <si>
+    <t>what interview! leave me alone</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
     <t>record5</t>
   </si>
   <si>
+    <t>If it is any consolation I got my BMI tested hahaha it says I am obesed well so much for being unh...</t>
+  </si>
+  <si>
+    <t>Hes just not that into you</t>
+  </si>
+  <si>
+    <t>Sons of ****, why couldn`t they put them on the releases we already bought</t>
+  </si>
+  <si>
     <t>record6</t>
   </si>
   <si>
+    <t>Ahhh, I slept through the game. I`m gonna try my best to watch tomorrow though. I hope we play Arm...</t>
+  </si>
+  <si>
+    <t>Playing Ghost Online is really interesting. The new updates are Kirin pet and Metamorph for third jo...</t>
+  </si>
+  <si>
+    <t>2am feedings for the baby are fun when he is all smiles and coos</t>
+  </si>
+  <si>
     <t>record7</t>
   </si>
   <si>
+    <t>Born and raised in NYC and living in Texas for the past 10 years! I still miss NY</t>
+  </si>
+  <si>
+    <t>is cleaning the house for her family who is comming later today..</t>
+  </si>
+  <si>
+    <t>Journey!? Wow... u just became cooler. hehe... (is that possible!?)</t>
+  </si>
+  <si>
     <t>record8</t>
   </si>
   <si>
+    <t>just in case you wonder, we are really busy today and this coming with with adding tons of new blogs...</t>
+  </si>
+  <si>
+    <t>gotta restart my computer .. I thought Win7 was supposed to put an end to the constant rebootiness</t>
+  </si>
+  <si>
+    <t>as much as i love to be hopeful, i reckon the chances are minimal =P i`m never gonna get my cake an...</t>
+  </si>
+  <si>
     <t>record9</t>
   </si>
   <si>
+    <t>i`m soooooo sleeeeepy!!! the last day o` school was today....sniffle....</t>
+  </si>
+  <si>
+    <t>SEe waT I Mean bOuT FoLL0w fRiiDaYs... It`S cALLed LoSe f0LloWeRs FridAy... smH</t>
+  </si>
+  <si>
+    <t>I really really like the song Love Story by Taylor Swift</t>
+  </si>
+  <si>
     <t>record10</t>
   </si>
   <si>
-    <t>I`d have responded, if I were going</t>
-  </si>
-  <si>
-    <t>Sooo SAD I will miss you here in San Diego!!!</t>
-  </si>
-  <si>
-    <t>my boss is bullying me...</t>
-  </si>
-  <si>
-    <t>what interview! leave me alone</t>
-  </si>
-  <si>
-    <t>Sons of ****, why couldn`t they put them on the releases we already bought</t>
-  </si>
-  <si>
-    <t>2am feedings for the baby are fun when he is all smiles and coos</t>
-  </si>
-  <si>
-    <t>Journey!? Wow... u just became cooler. hehe... (is that possible!?)</t>
-  </si>
-  <si>
-    <t>as much as i love to be hopeful, i reckon the chances are minimal =P i`m never gonna get my cake an...</t>
-  </si>
-  <si>
-    <t>I really really like the song Love Story by Taylor Swift</t>
+    <t>A little happy for the wine jeje ok it`sm my free time so who cares, jaja i love this day</t>
+  </si>
+  <si>
+    <t>the free fillin` app on my ipod is fun, im addicted</t>
   </si>
   <si>
     <t>My Sharpie is running DANGERously low on ink</t>
   </si>
   <si>
-    <t>i want to go to music tonight but i lost my voice.</t>
-  </si>
-  <si>
-    <t>Uh oh, I am sunburned</t>
-  </si>
-  <si>
-    <t>i`ve been sick for the past few days and thus, my hair looks wierd. if i didnt have a hat on it wo...</t>
-  </si>
-  <si>
-    <t>is back home now gonna miss every one</t>
-  </si>
-  <si>
-    <t>Hes just not that into you</t>
-  </si>
-  <si>
-    <t>Playing Ghost Online is really interesting. The new updates are Kirin pet and Metamorph for third jo...</t>
-  </si>
-  <si>
-    <t>is cleaning the house for her family who is comming later today..</t>
-  </si>
-  <si>
-    <t>gotta restart my computer .. I thought Win7 was supposed to put an end to the constant rebootiness</t>
-  </si>
-  <si>
-    <t>SEe waT I Mean bOuT FoLL0w fRiiDaYs... It`S cALLed LoSe f0LloWeRs FridAy... smH</t>
-  </si>
-  <si>
-    <t>the free fillin` app on my ipod is fun, im addicted</t>
-  </si>
-  <si>
-    <t>On the way to Malaysia...no internet access to Twit</t>
-  </si>
-  <si>
-    <t>juss came backk from Berkeleyy ; omg its madd fun out there havent been out there in a minute . wha...</t>
-  </si>
-  <si>
-    <t>Went to sleep and there is a power cut in Noida Power back up not working too</t>
-  </si>
-  <si>
-    <t>I`m going home now. Have you seen my new twitter design? Quite....heavenly isn`****?</t>
-  </si>
-  <si>
-    <t>If it is any consolation I got my BMI tested hahaha it says I am obesed well so much for being unh...</t>
-  </si>
-  <si>
-    <t>Ahhh, I slept through the game. I`m gonna try my best to watch tomorrow though. I hope we play Arm...</t>
-  </si>
-  <si>
-    <t>Born and raised in NYC and living in Texas for the past 10 years! I still miss NY</t>
-  </si>
-  <si>
-    <t>just in case you wonder, we are really busy today and this coming with with adding tons of new blogs...</t>
-  </si>
-  <si>
-    <t>i`m soooooo sleeeeepy!!! the last day o` school was today....sniffle....</t>
-  </si>
-  <si>
-    <t>A little happy for the wine jeje ok it`sm my free time so who cares, jaja i love this day</t>
+    <t>Strongly Agree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -202,116 +221,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -619,14 +546,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cefd00fd-4dc7-4e30-855b-77171a5f1a08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFD00FD-4DC7-4E30-855B-77171A5F1A08}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -641,166 +574,248 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>